--- a/biology/Zoologie/Adhemarius/Adhemarius.xlsx
+++ b/biology/Zoologie/Adhemarius/Adhemarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Adhemarius regroupe des lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Smerinthinae, de la tribu des Ambulycini.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre se rencontre sur la totalité du continent américain, par exemple dans les forêts humides de Colombie, du Brésil, du Paraguay. 
-Il se reproduit deux fois par an, et il est plus nombreux en février, juillet et aout. Mâles et femelles se distinguent par la couleur des ailes inférieures : beige, comme le reste de son corps, pour la femelle, et terre de Sienne pour le mâle[1]. 
+Il se reproduit deux fois par an, et il est plus nombreux en février, juillet et aout. Mâles et femelles se distinguent par la couleur des ailes inférieures : beige, comme le reste de son corps, pour la femelle, et terre de Sienne pour le mâle. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le  genre Adhemarius a été décrit par l'entomologiste brésilien José Oiticica, en 1939. Il a également été classé par Rudolf Felder en 1874[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le  genre Adhemarius a été décrit par l'entomologiste brésilien José Oiticica, en 1939. Il a également été classé par Rudolf Felder en 1874.
 L'espèce type pour le genre est Adhemarius gannascus (Stoll, 1790).</t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des espèces
 Adhemarius blanchardorum (Hodges, 1985)
@@ -584,17 +602,17 @@
 Adhemarius dariensis (Rothschild &amp; Jordan, 1903)
 Adhemarius dentoni (Clark, 1916)
 Adhemarius donysa (Druce, 1889)
-Adhemarius eurysthenes (R. Felder, [1874])
+Adhemarius eurysthenes (R. Felder, )
 Adhemarius gagarini (Zikán, 1935)
 Adhemarius gannascus (Stoll, 1790)
 Adhemarius germanus (Zikán, 1934)
 Adhemarius globifer (Dyar, 1913)
 Adhemarius jamaicensis (Rothschild &amp; Jordan, 1915)
 Adhemarius mexicanus Balcázar &amp; Beutelspacher, 2001
-Adhemarius palmeri (Boisduval, [1875])
+Adhemarius palmeri (Boisduval, )
 Adhemarius roessleri Eitschberger, 2002
 Adhemarius sexoculata (Grote, 1867)
-Adhemarius tigrina (R. Felder, [1874])
+Adhemarius tigrina (R. Felder, )
 Adhemarius ypsilon (Rothschild &amp; Jordan, 1903)
 			Adhemarius dentoni - MHNT
 			Adhemarius donysa - MHNT
